--- a/model_outputs/analysis_water_failure/water_deficit_pipe_36.xlsx
+++ b/model_outputs/analysis_water_failure/water_deficit_pipe_36.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Water deficit</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Junction 28 deficit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -9703,6 +9706,72 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Water</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> demand</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9722,7 +9791,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -9764,6 +9833,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Total system deficit (GPM)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9783,7 +9905,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -10437,16 +10559,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>602455</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>40481</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>54767</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7143</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>640555</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>69056</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>92867</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10771,10 +10893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E502"/>
+  <dimension ref="A1:N502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11051,7 +11173,7 @@
         <v>3.2724638613199999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>0.45079940999999901</v>
       </c>
@@ -11068,7 +11190,7 @@
         <v>2.6405437447499999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>0.456022504</v>
       </c>
@@ -11085,7 +11207,7 @@
         <v>3.79665024957E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>0.46124559799999998</v>
       </c>
@@ -11102,7 +11224,7 @@
         <v>1.99790724491E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>0.46646869199999902</v>
       </c>
@@ -11119,7 +11241,7 @@
         <v>2.0443052444499999E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>0.471691785999999</v>
       </c>
@@ -11136,7 +11258,7 @@
         <v>2.33376473079E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>0.47691487999999899</v>
       </c>
@@ -11153,7 +11275,7 @@
         <v>2.7781224807800001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>0.48213797399999903</v>
       </c>
@@ -11170,7 +11292,7 @@
         <v>3.2340352417999998E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>0.48736106799999901</v>
       </c>
@@ -11186,8 +11308,11 @@
       <c r="E24">
         <v>2.2533044930200001E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="N24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>0.49258416199999999</v>
       </c>
@@ -11204,7 +11329,7 @@
         <v>8.3092624845399995E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>0.49780725599999998</v>
       </c>
@@ -11221,7 +11346,7 @@
         <v>1.5417819904500001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>0.50303034999999996</v>
       </c>
@@ -11238,7 +11363,7 @@
         <v>3.38882498818E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>0.50825344399999905</v>
       </c>
@@ -11255,7 +11380,7 @@
         <v>3.66795299306E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>0.51347653799999904</v>
       </c>
@@ -11272,7 +11397,7 @@
         <v>2.56979548067E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>0.51869963199999902</v>
       </c>
@@ -11289,7 +11414,7 @@
         <v>1.5120484822499999E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>0.52392272599999901</v>
       </c>
@@ -11306,7 +11431,7 @@
         <v>9.8232273921899991E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>0.52914581999999999</v>
       </c>
